--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,20 +764,20 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3400</v>
       </c>
       <c r="P8" s="3">
         <v>3400</v>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1125,20 +1151,20 @@
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,20 +1201,20 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3300</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>3300</v>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,29 +1271,32 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2400</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>-2400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,22 +1392,25 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1400</v>
       </c>
       <c r="H23" s="3">
         <v>1400</v>
@@ -1377,78 +1419,84 @@
         <v>1400</v>
       </c>
       <c r="J23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
       </c>
       <c r="N23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1520,29 +1571,32 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
-        <v>800</v>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P26" s="3">
         <v>800</v>
       </c>
       <c r="Q26" s="3">
+        <v>800</v>
+      </c>
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1567,29 +1621,32 @@
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
-        <v>800</v>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>800</v>
       </c>
       <c r="Q27" s="3">
+        <v>800</v>
+      </c>
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,12 +1721,12 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1802,29 +1871,32 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2400</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>2400</v>
       </c>
       <c r="Q32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1849,29 +1921,32 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
-        <v>800</v>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P33" s="3">
         <v>800</v>
       </c>
       <c r="Q33" s="3">
+        <v>800</v>
+      </c>
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1943,81 +2021,87 @@
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
-        <v>800</v>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P35" s="3">
         <v>800</v>
       </c>
       <c r="Q35" s="3">
+        <v>800</v>
+      </c>
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E41" s="3">
         <v>29500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E42" s="3">
         <v>73200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>86700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>92600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>87200</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>80200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,13 +2487,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E48" s="3">
         <v>8600</v>
@@ -2398,40 +2505,43 @@
         <v>8600</v>
       </c>
       <c r="G48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3200</v>
       </c>
       <c r="P48" s="3">
         <v>3200</v>
       </c>
       <c r="Q48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="E54" s="3">
         <v>512100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>520100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>527600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>527400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>519100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>507400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>530000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>386000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>428600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>425000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>535900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>366400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>372500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="E66" s="3">
         <v>474100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>483200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>491700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>492300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>484700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>473700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>496800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>326000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>366100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>504200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>311500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>313200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>61700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>59200</v>
       </c>
       <c r="P72" s="3">
         <v>59200</v>
       </c>
       <c r="Q72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="R72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E76" s="3">
         <v>38000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>59200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3787,29 +3981,32 @@
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
-        <v>800</v>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P81" s="3">
         <v>800</v>
       </c>
       <c r="Q81" s="3">
+        <v>800</v>
+      </c>
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,20 +771,20 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3400</v>
       </c>
       <c r="Q8" s="3">
         <v>3400</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,20 +1181,20 @@
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1204,20 +1234,20 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3300</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>3300</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,29 +1308,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2400</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>-2400</v>
       </c>
       <c r="R20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,25 +1435,28 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1400</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
@@ -1422,81 +1465,87 @@
         <v>1400</v>
       </c>
       <c r="K23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
       </c>
       <c r="O23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1574,29 +1626,32 @@
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
-        <v>800</v>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q26" s="3">
         <v>800</v>
       </c>
       <c r="R26" s="3">
+        <v>800</v>
+      </c>
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1624,29 +1679,32 @@
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <v>800</v>
+      <c r="P27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q27" s="3">
         <v>800</v>
       </c>
       <c r="R27" s="3">
+        <v>800</v>
+      </c>
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,12 +1785,12 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1874,29 +1944,32 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2400</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>2400</v>
       </c>
       <c r="R32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1924,29 +1997,32 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
-        <v>800</v>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q33" s="3">
         <v>800</v>
       </c>
       <c r="R33" s="3">
+        <v>800</v>
+      </c>
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2024,84 +2103,90 @@
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
-        <v>800</v>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q35" s="3">
         <v>800</v>
       </c>
       <c r="R35" s="3">
+        <v>800</v>
+      </c>
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E41" s="3">
         <v>21800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E42" s="3">
         <v>70200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>86000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>86700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>92600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>88800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87200</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>80200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>8300</v>
       </c>
       <c r="E48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F48" s="3">
         <v>8600</v>
@@ -2508,40 +2616,43 @@
         <v>8600</v>
       </c>
       <c r="H48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3200</v>
       </c>
       <c r="Q48" s="3">
         <v>3200</v>
       </c>
       <c r="R48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>511300</v>
+      </c>
+      <c r="E54" s="3">
         <v>504900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>512100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>520100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>527600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>527400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>519100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>507400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>530000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>386000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>428600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>425000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>535900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>366400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>372500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E66" s="3">
         <v>466200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>474100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>483200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>491700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>492300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>484700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>473700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>496800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>326000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>366100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>504200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>311500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>313200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3626,32 +3800,35 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>61700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>59800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>59200</v>
       </c>
       <c r="Q72" s="3">
         <v>59200</v>
       </c>
       <c r="R72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="S72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E76" s="3">
         <v>38800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3984,29 +4179,32 @@
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
-        <v>800</v>
+      <c r="P81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q81" s="3">
         <v>800</v>
       </c>
       <c r="R81" s="3">
+        <v>800</v>
+      </c>
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,8 +764,8 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>20100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -774,29 +782,35 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3400</v>
       </c>
       <c r="S8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,8 +1220,8 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
+      <c r="G17" s="3">
+        <v>5400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
@@ -1184,29 +1238,35 @@
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1219,8 +1279,8 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>14700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1237,29 +1297,35 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3300</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,8 +1361,8 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>-8600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1311,29 +1379,35 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H23" s="3">
         <v>1800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1300</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
       </c>
       <c r="J23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K23" s="3">
         <v>1400</v>
       </c>
       <c r="L23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
-        <v>-1800</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1611,8 +1715,8 @@
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
+      <c r="G26" s="3">
+        <v>5000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
@@ -1629,29 +1733,35 @@
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1664,8 +1774,8 @@
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
+      <c r="G27" s="3">
+        <v>5000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
@@ -1682,29 +1792,35 @@
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,15 +1910,15 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1929,8 +2069,8 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>8600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1947,29 +2087,35 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1982,8 +2128,8 @@
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
+      <c r="G33" s="3">
+        <v>5000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
@@ -2000,29 +2146,35 @@
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2088,8 +2246,8 @@
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
+      <c r="G35" s="3">
+        <v>5000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
@@ -2106,87 +2264,99 @@
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2399,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F41" s="3">
         <v>23800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>29500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>35000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>31700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>39600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F42" s="3">
         <v>72800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>70200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>73200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>86000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>86700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>92600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>88000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>88800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>87200</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>80200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>8800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,84 +2808,96 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8600</v>
       </c>
       <c r="H48" s="3">
         <v>8600</v>
       </c>
       <c r="I48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>554800</v>
+      </c>
+      <c r="F54" s="3">
         <v>511300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>504900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>512100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>520100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>527600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>527400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>519100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>507400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>530000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>386000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>428600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>425000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>535900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>366400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>372500</v>
       </c>
       <c r="S54" s="3">
         <v>366400</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>372500</v>
+      </c>
+      <c r="U54" s="3">
+        <v>366400</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>514700</v>
+      </c>
+      <c r="F66" s="3">
         <v>471900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>466200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>474100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>483200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>491700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>492300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>484700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>473700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>496800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>326000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>369400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>366100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>504200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>311500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>313200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>17900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>61700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>60300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>59800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>59200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>59200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F76" s="3">
         <v>39400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>38800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>36900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>35100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>34400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>60000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>59200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>58900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>31700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>55000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>59200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4164,8 +4554,8 @@
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
+      <c r="G81" s="3">
+        <v>5000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
@@ -4182,29 +4572,35 @@
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>19000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -764,12 +767,12 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>20100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,20 +791,20 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3400</v>
       </c>
       <c r="T8" s="3">
         <v>3400</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,13 +1231,14 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>5000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
@@ -1220,12 +1246,12 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1244,20 +1270,20 @@
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1265,13 +1291,16 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>14000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1279,12 +1308,12 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>14700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1303,20 +1332,20 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3300</v>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>3300</v>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-8800</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1361,12 +1394,12 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-8600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,29 +1418,32 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2400</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>-2400</v>
       </c>
       <c r="U20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,34 +1563,37 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1400</v>
+        <v>5200</v>
       </c>
       <c r="E23" s="3">
         <v>1400</v>
       </c>
       <c r="F23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1400</v>
       </c>
       <c r="L23" s="3">
         <v>1400</v>
@@ -1560,90 +1602,96 @@
         <v>1400</v>
       </c>
       <c r="N23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1400</v>
       </c>
       <c r="Q23" s="3">
         <v>1400</v>
       </c>
       <c r="R23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,13 +1749,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>4400</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -1715,12 +1766,12 @@
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1739,34 +1790,37 @@
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
-        <v>800</v>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T26" s="3">
         <v>800</v>
       </c>
       <c r="U26" s="3">
+        <v>800</v>
+      </c>
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>4400</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -1774,12 +1828,12 @@
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1798,29 +1852,32 @@
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
-        <v>800</v>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T27" s="3">
         <v>800</v>
       </c>
       <c r="U27" s="3">
+        <v>800</v>
+      </c>
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>8800</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -2069,12 +2138,12 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>8600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2093,34 +2162,37 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2400</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>2400</v>
       </c>
       <c r="U32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>4400</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>4</v>
@@ -2128,12 +2200,12 @@
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2152,29 +2224,32 @@
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
-        <v>800</v>
+      <c r="S33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T33" s="3">
         <v>800</v>
       </c>
       <c r="U33" s="3">
+        <v>800</v>
+      </c>
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>4400</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -2246,12 +2324,12 @@
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2270,93 +2348,99 @@
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
-        <v>800</v>
+      <c r="S35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T35" s="3">
         <v>800</v>
       </c>
       <c r="U35" s="3">
+        <v>800</v>
+      </c>
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
         <v>46000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
         <v>67300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>86000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>86700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>87200</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>80200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,25 +2918,28 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
         <v>8200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8300</v>
       </c>
       <c r="G48" s="3">
         <v>8300</v>
       </c>
       <c r="H48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="I48" s="3">
         <v>8600</v>
@@ -2841,45 +2948,48 @@
         <v>8600</v>
       </c>
       <c r="K48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>3200</v>
       </c>
       <c r="T48" s="3">
         <v>3200</v>
       </c>
       <c r="U48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>3600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -2887,20 +2997,20 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3">
+        <v>547800</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
         <v>554800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>511300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>504900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>512100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>520100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>527600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>527400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>519100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>507400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>530000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>386000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>428600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>425000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>535900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>366400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>372500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,31 +3524,34 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>506400</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
         <v>514700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>471900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>466200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>474100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>483200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>491700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>492300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>484700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>473700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>496800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>326000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>369400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>366100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>504200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>311500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>313200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,13 +4292,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>20000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -4136,20 +4309,20 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>17900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4157,32 +4330,35 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>61700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>60300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>59800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>59200</v>
       </c>
       <c r="T72" s="3">
         <v>59200</v>
       </c>
       <c r="U72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="V72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
         <v>40100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>59200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>59200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>4400</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>4</v>
@@ -4554,12 +4748,12 @@
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4578,29 +4772,32 @@
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
-        <v>800</v>
+      <c r="S81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T81" s="3">
         <v>800</v>
       </c>
       <c r="U81" s="3">
+        <v>800</v>
+      </c>
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>19000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>20100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,20 +798,20 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3400</v>
       </c>
       <c r="U8" s="3">
         <v>3400</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,29 +1258,30 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,20 +1300,20 @@
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1294,29 +1321,32 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>14700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1335,20 +1365,20 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3300</v>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U18" s="3">
         <v>3300</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,29 +1413,30 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8800</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-8600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,29 +1455,32 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2400</v>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>-2400</v>
       </c>
       <c r="V20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,37 +1606,40 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>5200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1400</v>
       </c>
       <c r="F23" s="3">
         <v>1400</v>
       </c>
       <c r="G23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
@@ -1605,93 +1648,99 @@
         <v>1400</v>
       </c>
       <c r="O23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1400</v>
       </c>
       <c r="R23" s="3">
         <v>1400</v>
       </c>
       <c r="S23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,29 +1801,32 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>4400</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1793,50 +1845,53 @@
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
-        <v>800</v>
+      <c r="T26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U26" s="3">
         <v>800</v>
       </c>
       <c r="V26" s="3">
+        <v>800</v>
+      </c>
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>4400</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1855,29 +1910,32 @@
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
-        <v>800</v>
+      <c r="T27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U27" s="3">
         <v>800</v>
       </c>
       <c r="V27" s="3">
+        <v>800</v>
+      </c>
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +1996,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1979,12 +2040,12 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,29 +2191,32 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>8800</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>8600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2165,50 +2235,53 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2400</v>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>2400</v>
       </c>
       <c r="V32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>4400</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2227,29 +2300,32 @@
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
-        <v>800</v>
+      <c r="T33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U33" s="3">
         <v>800</v>
       </c>
       <c r="V33" s="3">
+        <v>800</v>
+      </c>
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,29 +2386,32 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>4400</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2351,96 +2430,102 @@
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
-        <v>800</v>
+      <c r="T35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U35" s="3">
         <v>800</v>
       </c>
       <c r="V35" s="3">
+        <v>800</v>
+      </c>
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42800</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
         <v>46000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E42" s="3">
         <v>70100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
         <v>67300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>73200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>86000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>92600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>87200</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>80200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,28 +3026,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>8200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8300</v>
       </c>
       <c r="H48" s="3">
         <v>8300</v>
       </c>
       <c r="I48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="J48" s="3">
         <v>8600</v>
@@ -2951,69 +3059,72 @@
         <v>8600</v>
       </c>
       <c r="L48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>3200</v>
       </c>
       <c r="U48" s="3">
         <v>3200</v>
       </c>
       <c r="V48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
         <v>3600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E54" s="3">
         <v>547800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
         <v>554800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>511300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>504900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>512100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>520100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>527600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>527400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>519100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>507400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>530000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>386000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>428600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>425000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>535900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>366400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>372500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,17 +3661,20 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3553,8 +3690,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>527400</v>
+      </c>
+      <c r="E66" s="3">
         <v>506400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
         <v>514700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>471900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>466200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>474100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>483200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>491700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>492300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>484700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>473700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>496800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>326000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>369400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>366100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>504200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>311500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>313200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,37 +4466,40 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>20000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>17900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -4333,32 +4507,35 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>61700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>60300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>59800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>59200</v>
       </c>
       <c r="U72" s="3">
         <v>59200</v>
       </c>
       <c r="V72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="W72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E76" s="3">
         <v>41300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
         <v>40100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>55000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,96 +4856,102 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>4400</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4775,29 +4970,32 @@
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
-        <v>800</v>
+      <c r="T81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U81" s="3">
         <v>800</v>
       </c>
       <c r="V81" s="3">
+        <v>800</v>
+      </c>
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <v>19000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>20100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,20 +805,20 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3400</v>
       </c>
       <c r="V8" s="3">
         <v>3400</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,32 +1285,33 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1303,20 +1330,20 @@
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1324,32 +1351,35 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>14700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1368,20 +1398,20 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3300</v>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V18" s="3">
         <v>3300</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,32 +1447,33 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1458,29 +1492,32 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2400</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>-2400</v>
       </c>
       <c r="W20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,40 +1649,43 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1400</v>
       </c>
       <c r="G23" s="3">
         <v>1400</v>
       </c>
       <c r="H23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
@@ -1651,96 +1694,102 @@
         <v>1400</v>
       </c>
       <c r="P23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1400</v>
       </c>
       <c r="S23" s="3">
         <v>1400</v>
       </c>
       <c r="T23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,32 +1853,35 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>4400</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1848,53 +1900,56 @@
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
-        <v>800</v>
+      <c r="U26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V26" s="3">
         <v>800</v>
       </c>
       <c r="W26" s="3">
+        <v>800</v>
+      </c>
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>4400</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1913,29 +1968,32 @@
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
-        <v>800</v>
+      <c r="U27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V27" s="3">
         <v>800</v>
       </c>
       <c r="W27" s="3">
+        <v>800</v>
+      </c>
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -2043,12 +2104,12 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,32 +2261,35 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>8800</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>8600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2238,53 +2308,56 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2400</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>2400</v>
       </c>
       <c r="W32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
         <v>4400</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2303,29 +2376,32 @@
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
-        <v>800</v>
+      <c r="U33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V33" s="3">
         <v>800</v>
       </c>
       <c r="W33" s="3">
+        <v>800</v>
+      </c>
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,32 +2465,35 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>4400</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2433,99 +2512,105 @@
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
-        <v>800</v>
+      <c r="U35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V35" s="3">
         <v>800</v>
       </c>
       <c r="W35" s="3">
+        <v>800</v>
+      </c>
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E41" s="3">
         <v>29100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42800</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
         <v>46000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>39600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E42" s="3">
         <v>69100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>67300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>73200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87200</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>80200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3040,20 +3148,20 @@
       <c r="E48" s="3">
         <v>8100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
         <v>8200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>8300</v>
       </c>
       <c r="I48" s="3">
         <v>8300</v>
       </c>
       <c r="J48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="K48" s="3">
         <v>8600</v>
@@ -3062,72 +3170,75 @@
         <v>8600</v>
       </c>
       <c r="M48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3200</v>
       </c>
       <c r="V48" s="3">
         <v>3200</v>
       </c>
       <c r="W48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
         <v>3600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>587600</v>
+      </c>
+      <c r="E54" s="3">
         <v>569800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>547800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
         <v>554800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>511300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>504900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>512100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>520100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>527600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>527400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>519100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>507400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>530000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>386000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>428600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>425000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>535900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>366400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>372500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,20 +3798,23 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3693,8 +3830,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>544500</v>
+      </c>
+      <c r="E66" s="3">
         <v>527400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>506400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
         <v>514700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>471900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>466200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>474100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>483200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>491700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>492300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>484700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>473700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>496800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>326000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>369400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>366100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>504200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>311500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>313200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,40 +4640,43 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>20000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>17900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -4510,32 +4684,35 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>61700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>60300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>59800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>59200</v>
       </c>
       <c r="V72" s="3">
         <v>59200</v>
       </c>
       <c r="W72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="X72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E76" s="3">
         <v>42300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
         <v>40100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>58900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>55000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,102 +5048,108 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
         <v>4400</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4973,29 +5168,32 @@
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
-        <v>800</v>
+      <c r="U81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V81" s="3">
         <v>800</v>
       </c>
       <c r="W81" s="3">
+        <v>800</v>
+      </c>
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,24 +776,24 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>19000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>20100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -808,20 +812,20 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3400</v>
       </c>
       <c r="W8" s="3">
         <v>3400</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,24 +1324,24 @@
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1333,20 +1360,20 @@
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1365,24 +1395,24 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>14700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1401,20 +1431,20 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3300</v>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W18" s="3">
         <v>3300</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,24 +1493,24 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,29 +1529,32 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2400</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>-2400</v>
       </c>
       <c r="X20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,43 +1692,46 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1400</v>
       </c>
       <c r="H23" s="3">
         <v>1400</v>
       </c>
       <c r="I23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1400</v>
       </c>
       <c r="O23" s="3">
         <v>1400</v>
@@ -1697,31 +1740,34 @@
         <v>1400</v>
       </c>
       <c r="Q23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1400</v>
       </c>
       <c r="T23" s="3">
         <v>1400</v>
       </c>
       <c r="U23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,67 +1775,70 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1867,24 +1919,24 @@
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1903,29 +1955,32 @@
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
-        <v>800</v>
+      <c r="V26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W26" s="3">
         <v>800</v>
       </c>
       <c r="X26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,24 +1990,24 @@
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1971,29 +2026,32 @@
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
-        <v>800</v>
+      <c r="V27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W27" s="3">
         <v>800</v>
       </c>
       <c r="X27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2107,12 +2168,12 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,24 +2345,24 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>8800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>8600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2311,29 +2381,32 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2400</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>2400</v>
       </c>
       <c r="X32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2343,24 +2416,24 @@
       <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2379,29 +2452,32 @@
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
-        <v>800</v>
+      <c r="V33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W33" s="3">
         <v>800</v>
       </c>
       <c r="X33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2479,24 +2558,24 @@
       <c r="E35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2515,102 +2594,108 @@
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
-        <v>800</v>
+      <c r="V35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W35" s="3">
         <v>800</v>
       </c>
       <c r="X35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2747,23 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E41" s="3">
         <v>51300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H41" s="3">
         <v>46000</v>
@@ -2688,63 +2775,66 @@
         <v>21800</v>
       </c>
       <c r="K41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="L41" s="3">
         <v>29500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>39600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E42" s="3">
         <v>65700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>69100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>67300</v>
@@ -2756,49 +2846,52 @@
         <v>70200</v>
       </c>
       <c r="K42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="L42" s="3">
         <v>73200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>86700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87200</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>80200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3242,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E48" s="3">
         <v>8100</v>
@@ -3151,8 +3259,8 @@
       <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>8100</v>
       </c>
       <c r="H48" s="3">
         <v>8200</v>
@@ -3164,7 +3272,7 @@
         <v>8300</v>
       </c>
       <c r="K48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="L48" s="3">
         <v>8600</v>
@@ -3173,40 +3281,43 @@
         <v>8600</v>
       </c>
       <c r="N48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O48" s="3">
         <v>8300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>3200</v>
       </c>
       <c r="W48" s="3">
         <v>3200</v>
       </c>
       <c r="X48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3216,11 +3327,11 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
         <v>3600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3342,8 @@
       <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>3600</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3240,8 +3351,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,22 +3668,25 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>591800</v>
+      </c>
+      <c r="E54" s="3">
         <v>587600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>569800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>547800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H54" s="3">
         <v>554800</v>
@@ -3572,49 +3698,52 @@
         <v>504900</v>
       </c>
       <c r="K54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="L54" s="3">
         <v>512100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>520100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>527600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>527400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>519100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>507400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>530000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>386000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>428600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>425000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>535900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>366400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>372500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3812,12 +3949,12 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3833,8 +3970,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,22 +4432,25 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>547900</v>
+      </c>
+      <c r="E66" s="3">
         <v>544500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>527400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>506400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>514700</v>
@@ -4304,49 +4462,52 @@
         <v>466200</v>
       </c>
       <c r="K66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="L66" s="3">
         <v>474100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>483200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>491700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>492300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>484700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>473700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>326000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>369400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>366100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>504200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>311500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>313200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4654,11 +4828,11 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
         <v>20000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4843,8 @@
       <c r="J72" s="3">
         <v>17900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>17900</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
@@ -4678,8 +4852,8 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4687,32 +4861,35 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>61700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>60300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>59800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>59200</v>
       </c>
       <c r="W72" s="3">
         <v>59200</v>
       </c>
       <c r="X72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,22 +5098,25 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E76" s="3">
         <v>43100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H76" s="3">
         <v>40100</v>
@@ -4942,49 +5128,52 @@
         <v>38800</v>
       </c>
       <c r="K76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L76" s="3">
         <v>38000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>60000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>59200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>58900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>55000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>59200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5135,24 +5330,24 @@
       <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5171,29 +5366,32 @@
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
-        <v>800</v>
+      <c r="V81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W81" s="3">
         <v>800</v>
       </c>
       <c r="X81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,24 +782,24 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>19000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>20100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -815,20 +818,20 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3400</v>
       </c>
       <c r="X8" s="3">
         <v>3400</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,24 +1353,24 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1363,20 +1389,20 @@
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1384,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,24 +1427,24 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1434,20 +1463,20 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
-        <v>3300</v>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X18" s="3">
         <v>3300</v>
@@ -1455,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1496,24 +1529,24 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-8800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-8600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,29 +1565,32 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2400</v>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>-2400</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,46 +1734,49 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1400</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
       </c>
       <c r="J23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1400</v>
       </c>
       <c r="P23" s="3">
         <v>1400</v>
@@ -1743,102 +1785,108 @@
         <v>1400</v>
       </c>
       <c r="R23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1400</v>
       </c>
       <c r="U23" s="3">
         <v>1400</v>
       </c>
       <c r="V23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1922,24 +1973,24 @@
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1958,29 +2009,32 @@
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
-        <v>800</v>
+      <c r="W26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X26" s="3">
         <v>800</v>
       </c>
       <c r="Y26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1993,24 +2047,24 @@
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>4400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2029,29 +2083,32 @@
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
-        <v>800</v>
+      <c r="W27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X27" s="3">
         <v>800</v>
       </c>
       <c r="Y27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,8 +2213,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2171,12 +2231,12 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2348,24 +2417,24 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>8800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>8600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2384,29 +2453,32 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2400</v>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>2400</v>
       </c>
       <c r="Y32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2419,24 +2491,24 @@
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2455,29 +2527,32 @@
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
-        <v>800</v>
+      <c r="W33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X33" s="3">
         <v>800</v>
       </c>
       <c r="Y33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2561,24 +2639,24 @@
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2597,105 +2675,111 @@
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
-        <v>800</v>
+      <c r="W35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X35" s="3">
         <v>800</v>
       </c>
       <c r="Y35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E41" s="3">
         <v>35900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>21800</v>
       </c>
       <c r="K41" s="3">
         <v>21800</v>
       </c>
       <c r="L41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="M41" s="3">
         <v>29500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>39600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E42" s="3">
         <v>79900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>69100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>67300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>70200</v>
       </c>
       <c r="K42" s="3">
         <v>70200</v>
       </c>
       <c r="L42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="M42" s="3">
         <v>73200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>86000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>92600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87200</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>80200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,16 +3349,19 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>8100</v>
       </c>
       <c r="F48" s="3">
         <v>8100</v>
@@ -3263,10 +3370,10 @@
         <v>8100</v>
       </c>
       <c r="H48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I48" s="3">
         <v>8200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>8300</v>
       </c>
       <c r="J48" s="3">
         <v>8300</v>
@@ -3275,7 +3382,7 @@
         <v>8300</v>
       </c>
       <c r="L48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="M48" s="3">
         <v>8600</v>
@@ -3284,40 +3391,43 @@
         <v>8600</v>
       </c>
       <c r="O48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P48" s="3">
         <v>8300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7100</v>
-      </c>
-      <c r="W48" s="3">
-        <v>3200</v>
       </c>
       <c r="X48" s="3">
         <v>3200</v>
       </c>
       <c r="Y48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3330,23 +3440,23 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>3600</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>3600</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3464,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>610800</v>
+      </c>
+      <c r="E54" s="3">
         <v>591800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>587600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>569800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>547800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>554800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>511300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>504900</v>
       </c>
       <c r="K54" s="3">
         <v>504900</v>
       </c>
       <c r="L54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="M54" s="3">
         <v>512100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>520100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>527600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>527400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>519100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>507400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>530000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>386000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>428600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>425000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>535900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>366400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>372500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,12 +4088,12 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3973,8 +4109,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>565900</v>
+      </c>
+      <c r="E66" s="3">
         <v>547900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>544500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>527400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>506400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>514700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>466200</v>
       </c>
       <c r="K66" s="3">
         <v>466200</v>
       </c>
       <c r="L66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="M66" s="3">
         <v>474100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>483200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>491700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>492300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>484700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>473700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>326000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>369400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>366100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>504200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>311500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>313200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4831,23 +5004,23 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>20000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
-        <v>17900</v>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>17900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
+      <c r="L72" s="3">
+        <v>17900</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
@@ -4855,8 +5028,8 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -4864,32 +5037,35 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>61700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>60300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>59800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>59200</v>
       </c>
       <c r="X72" s="3">
         <v>59200</v>
       </c>
       <c r="Y72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="Z72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E76" s="3">
         <v>43900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>38800</v>
       </c>
       <c r="K76" s="3">
         <v>38800</v>
       </c>
       <c r="L76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="M76" s="3">
         <v>38000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>60000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>59200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>58900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>55000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>59200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5333,24 +5527,24 @@
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5369,29 +5563,32 @@
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
-        <v>800</v>
+      <c r="W81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X81" s="3">
         <v>800</v>
       </c>
       <c r="Y81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>19400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -785,24 +789,24 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>20100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -821,20 +825,20 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3400</v>
       </c>
       <c r="Y8" s="3">
         <v>3400</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,16 +1365,17 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
+      <c r="E17" s="3">
+        <v>1900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -1356,24 +1383,24 @@
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1392,20 +1419,20 @@
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
@@ -1413,16 +1440,19 @@
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>17500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1430,24 +1460,24 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,20 +1496,20 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
-        <v>3300</v>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y18" s="3">
         <v>3300</v>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,16 +1548,17 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>-9700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1532,24 +1566,24 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-8800</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1568,29 +1602,32 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-2400</v>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y20" s="3">
         <v>-2400</v>
       </c>
       <c r="Z20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,49 +1777,52 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>1400</v>
       </c>
       <c r="K23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1400</v>
       </c>
       <c r="Q23" s="3">
         <v>1400</v>
@@ -1788,105 +1831,111 @@
         <v>1400</v>
       </c>
       <c r="S23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1400</v>
       </c>
       <c r="V23" s="3">
         <v>1400</v>
       </c>
       <c r="W23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,16 +2008,19 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="E26" s="3">
+        <v>6400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
@@ -1976,24 +2028,24 @@
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2012,37 +2064,40 @@
       <c r="S26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
-        <v>800</v>
+      <c r="X26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y26" s="3">
         <v>800</v>
       </c>
       <c r="Z26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="E27" s="3">
+        <v>6400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
@@ -2050,24 +2105,24 @@
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2086,29 +2141,32 @@
       <c r="S27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
-        <v>800</v>
+      <c r="X27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y27" s="3">
         <v>800</v>
       </c>
       <c r="Z27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,8 +2277,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -2234,12 +2295,12 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,16 +2470,19 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>9700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2420,24 +2490,24 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>8800</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>8600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2456,37 +2526,40 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
-        <v>2400</v>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y32" s="3">
         <v>2400</v>
       </c>
       <c r="Z32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="E33" s="3">
+        <v>6400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
@@ -2494,24 +2567,24 @@
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,29 +2603,32 @@
       <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
-        <v>800</v>
+      <c r="X33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y33" s="3">
         <v>800</v>
       </c>
       <c r="Z33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,16 +2701,19 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="E35" s="3">
+        <v>6400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
@@ -2642,24 +2721,24 @@
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2678,108 +2757,114 @@
       <c r="S35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
-        <v>800</v>
+      <c r="X35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y35" s="3">
         <v>800</v>
       </c>
       <c r="Z35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E41" s="3">
         <v>28700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>21800</v>
       </c>
       <c r="L41" s="3">
         <v>21800</v>
       </c>
       <c r="M41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="N41" s="3">
         <v>29500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>39600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E42" s="3">
         <v>102800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>69100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>67300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>70200</v>
       </c>
       <c r="L42" s="3">
         <v>70200</v>
       </c>
       <c r="M42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="N42" s="3">
         <v>73200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>92600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>88800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87200</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>80200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,19 +3457,22 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8100</v>
       </c>
       <c r="G48" s="3">
         <v>8100</v>
@@ -3373,10 +3481,10 @@
         <v>8100</v>
       </c>
       <c r="I48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J48" s="3">
         <v>8200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8300</v>
       </c>
       <c r="K48" s="3">
         <v>8300</v>
@@ -3385,7 +3493,7 @@
         <v>8300</v>
       </c>
       <c r="M48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="N48" s="3">
         <v>8600</v>
@@ -3394,48 +3502,51 @@
         <v>8600</v>
       </c>
       <c r="P48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7100</v>
-      </c>
-      <c r="X48" s="3">
-        <v>3200</v>
       </c>
       <c r="Y48" s="3">
         <v>3200</v>
       </c>
       <c r="Z48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>3500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3443,23 +3554,23 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>3600</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>3600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>3600</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -3467,8 +3578,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E54" s="3">
         <v>610800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>591800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>587600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>569800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>547800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>554800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>511300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>504900</v>
       </c>
       <c r="L54" s="3">
         <v>504900</v>
       </c>
       <c r="M54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="N54" s="3">
         <v>512100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>520100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>527600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>527400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>519100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>507400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>530000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>386000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>428600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>425000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>535900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>366400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>372500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,16 +4208,19 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>3000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -4091,12 +4228,12 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4112,8 +4249,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>581700</v>
+      </c>
+      <c r="E66" s="3">
         <v>565900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>547900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>544500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>527400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>506400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>514700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>471900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>466200</v>
       </c>
       <c r="L66" s="3">
         <v>466200</v>
       </c>
       <c r="M66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="N66" s="3">
         <v>474100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>483200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>491700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>492300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>484700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>473700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>326000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>369400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>366100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>504200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>311500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>313200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,16 +5161,19 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>24200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
@@ -5007,23 +5181,23 @@
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>20000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
-        <v>17900</v>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L72" s="3">
         <v>17900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>17900</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
@@ -5031,8 +5205,8 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -5040,32 +5214,35 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>61700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>60300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>59800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>59200</v>
       </c>
       <c r="Y72" s="3">
         <v>59200</v>
       </c>
       <c r="Z72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AA72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E76" s="3">
         <v>44900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>38800</v>
       </c>
       <c r="L76" s="3">
         <v>38800</v>
       </c>
       <c r="M76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="N76" s="3">
         <v>38000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>58900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>55000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>59200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,95 +5623,101 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="E81" s="3">
+        <v>6400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
@@ -5530,24 +5725,24 @@
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5566,29 +5761,32 @@
       <c r="S81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
-        <v>800</v>
+      <c r="X81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y81" s="3">
         <v>800</v>
       </c>
       <c r="Z81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <v>19400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>19000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>20100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,20 +832,20 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3400</v>
       </c>
       <c r="Z8" s="3">
         <v>3400</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,44 +1392,45 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1422,20 +1449,20 @@
       <c r="T17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
@@ -1443,44 +1470,47 @@
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>17500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1499,20 +1529,20 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>3300</v>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z18" s="3">
         <v>3300</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,44 +1582,45 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-8600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1605,29 +1639,32 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-2400</v>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z20" s="3">
         <v>-2400</v>
       </c>
       <c r="AA20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,52 +1820,55 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1400</v>
       </c>
       <c r="K23" s="3">
         <v>1400</v>
       </c>
       <c r="L23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1400</v>
       </c>
       <c r="R23" s="3">
         <v>1400</v>
@@ -1834,108 +1877,114 @@
         <v>1400</v>
       </c>
       <c r="T23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1400</v>
       </c>
       <c r="W23" s="3">
         <v>1400</v>
       </c>
       <c r="X23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
       <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,44 +2060,47 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,65 +2119,68 @@
       <c r="T26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>800</v>
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z26" s="3">
         <v>800</v>
       </c>
       <c r="AA26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2144,29 +2199,32 @@
       <c r="T27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>800</v>
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z27" s="3">
         <v>800</v>
       </c>
       <c r="AA27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2298,12 +2359,12 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,44 +2540,47 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>9700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>8800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>8600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,65 +2599,68 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>2400</v>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>2400</v>
       </c>
       <c r="AA32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
         <v>4400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,29 +2679,32 @@
       <c r="T33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>800</v>
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z33" s="3">
         <v>800</v>
       </c>
       <c r="AA33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,44 +2780,47 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
         <v>4400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2760,111 +2839,117 @@
       <c r="T35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>800</v>
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z35" s="3">
         <v>800</v>
       </c>
       <c r="AA35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E41" s="3">
         <v>67500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>21800</v>
       </c>
       <c r="M41" s="3">
         <v>21800</v>
       </c>
       <c r="N41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="O41" s="3">
         <v>29500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>39600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E42" s="3">
         <v>122900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>79900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>69100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>67300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>70200</v>
       </c>
       <c r="M42" s="3">
         <v>70200</v>
       </c>
       <c r="N42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="O42" s="3">
         <v>73200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>86700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>92600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>88000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>88800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>87200</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>80200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,22 +3565,25 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8100</v>
       </c>
       <c r="H48" s="3">
         <v>8100</v>
@@ -3484,10 +3592,10 @@
         <v>8100</v>
       </c>
       <c r="J48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8300</v>
       </c>
       <c r="L48" s="3">
         <v>8300</v>
@@ -3496,7 +3604,7 @@
         <v>8300</v>
       </c>
       <c r="N48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="O48" s="3">
         <v>8600</v>
@@ -3505,75 +3613,78 @@
         <v>8600</v>
       </c>
       <c r="Q48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R48" s="3">
         <v>8300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7100</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>3200</v>
       </c>
       <c r="Z48" s="3">
         <v>3200</v>
       </c>
       <c r="AA48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AB48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>3600</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>3600</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3581,8 +3692,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E54" s="3">
         <v>627400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>610800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>591800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>587600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>569800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>547800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>554800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>511300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>504900</v>
       </c>
       <c r="M54" s="3">
         <v>504900</v>
       </c>
       <c r="N54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="O54" s="3">
         <v>512100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>520100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>527600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>527400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>519100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>507400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>530000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>386000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>428600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>425000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>535900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>366400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>372500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,32 +4345,35 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4252,8 +4389,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>586100</v>
+      </c>
+      <c r="E66" s="3">
         <v>581700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>565900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>547900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>544500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>527400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>506400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>514700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>471900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>466200</v>
       </c>
       <c r="M66" s="3">
         <v>466200</v>
       </c>
       <c r="N66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="O66" s="3">
         <v>474100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>483200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>491700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>492300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>484700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>473700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>496800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>326000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>369400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>366100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>504200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>311500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>313200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,43 +5335,46 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>24200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>20000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
-        <v>17900</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>17900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>17900</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
@@ -5208,8 +5382,8 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -5217,32 +5391,35 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>61700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>60300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>59800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>59200</v>
       </c>
       <c r="Z72" s="3">
         <v>59200</v>
       </c>
       <c r="AA72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AB72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E76" s="3">
         <v>45700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>38800</v>
       </c>
       <c r="M76" s="3">
         <v>38800</v>
       </c>
       <c r="N76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="O76" s="3">
         <v>38000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>60000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>58900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>55000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>59200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,126 +5815,132 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
         <v>4400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5764,29 +5959,32 @@
       <c r="T81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>800</v>
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z81" s="3">
         <v>800</v>
       </c>
       <c r="AA81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,36 +791,36 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>19400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>20100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,20 +839,20 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4600</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3400</v>
       </c>
       <c r="AA8" s="3">
         <v>3400</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,36 +1431,36 @@
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1452,20 +1479,20 @@
       <c r="U17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1484,36 +1514,36 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>14700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,20 +1562,20 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>3300</v>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA18" s="3">
         <v>3300</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1594,36 +1628,36 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-9700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-8600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1642,29 +1676,32 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-2400</v>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA20" s="3">
         <v>-2400</v>
       </c>
       <c r="AB20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,55 +1863,58 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1400</v>
       </c>
       <c r="L23" s="3">
         <v>1400</v>
       </c>
       <c r="M23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1400</v>
       </c>
       <c r="S23" s="3">
         <v>1400</v>
@@ -1880,31 +1923,34 @@
         <v>1400</v>
       </c>
       <c r="U23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1400</v>
       </c>
       <c r="X23" s="3">
         <v>1400</v>
       </c>
       <c r="Y23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +1958,82 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
       <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2112,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2074,36 +2126,36 @@
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2122,29 +2174,32 @@
       <c r="U26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>800</v>
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA26" s="3">
         <v>800</v>
       </c>
       <c r="AB26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2154,36 +2209,36 @@
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2202,29 +2257,32 @@
       <c r="U27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>800</v>
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA27" s="3">
         <v>800</v>
       </c>
       <c r="AB27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2405,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2362,12 +2423,12 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2554,36 +2624,36 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>9700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>8600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2602,29 +2672,32 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>2400</v>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA32" s="3">
         <v>2400</v>
       </c>
       <c r="AB32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2634,36 +2707,36 @@
       <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2682,29 +2755,32 @@
       <c r="U33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>800</v>
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA33" s="3">
         <v>800</v>
       </c>
       <c r="AB33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2859,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2794,36 +2873,36 @@
       <c r="E35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2842,114 +2921,120 @@
       <c r="U35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>800</v>
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA35" s="3">
         <v>800</v>
       </c>
       <c r="AB35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E41" s="3">
         <v>68900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>21800</v>
       </c>
       <c r="N41" s="3">
         <v>21800</v>
       </c>
       <c r="O41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="P41" s="3">
         <v>29500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>39600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E42" s="3">
         <v>114700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>79900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>69100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>67300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72800</v>
-      </c>
-      <c r="M42" s="3">
-        <v>70200</v>
       </c>
       <c r="N42" s="3">
         <v>70200</v>
       </c>
       <c r="O42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="P42" s="3">
         <v>73200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>86000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>86700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>92600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>88000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>88800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>87200</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>80200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,25 +3673,28 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>8100</v>
       </c>
       <c r="I48" s="3">
         <v>8100</v>
@@ -3595,10 +3703,10 @@
         <v>8100</v>
       </c>
       <c r="K48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L48" s="3">
         <v>8200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>8300</v>
       </c>
       <c r="M48" s="3">
         <v>8300</v>
@@ -3607,7 +3715,7 @@
         <v>8300</v>
       </c>
       <c r="O48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="P48" s="3">
         <v>8600</v>
@@ -3616,40 +3724,43 @@
         <v>8600</v>
       </c>
       <c r="R48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7100</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>3200</v>
       </c>
       <c r="AA48" s="3">
         <v>3200</v>
       </c>
       <c r="AB48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AC48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3659,35 +3770,35 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>3600</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>3600</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3695,8 +3806,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>613100</v>
+      </c>
+      <c r="E54" s="3">
         <v>625000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>627400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>610800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>591800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>587600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>569800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>547800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>554800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>511300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>504900</v>
       </c>
       <c r="N54" s="3">
         <v>504900</v>
       </c>
       <c r="O54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="P54" s="3">
         <v>512100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>520100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>527600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>527400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>519100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>507400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>530000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>386000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>428600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>425000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>535900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>366400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>372500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4359,24 +4496,24 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4392,8 +4529,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>575900</v>
+      </c>
+      <c r="E66" s="3">
         <v>586100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>581700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>565900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>547900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>544500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>527400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>506400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>514700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>471900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>466200</v>
       </c>
       <c r="N66" s="3">
         <v>466200</v>
       </c>
       <c r="O66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="P66" s="3">
         <v>474100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>483200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>491700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>492300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>484700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>473700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>496800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>326000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>369400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>366100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>504200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>311500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>313200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5509,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5349,35 +5523,35 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
         <v>24200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>20000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
-        <v>17900</v>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>17900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>17900</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
@@ -5385,8 +5559,8 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5394,32 +5568,35 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>61700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>60300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>59800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>59200</v>
       </c>
       <c r="AA72" s="3">
         <v>59200</v>
       </c>
       <c r="AB72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AC72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E76" s="3">
         <v>38900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>38800</v>
       </c>
       <c r="N76" s="3">
         <v>38800</v>
       </c>
       <c r="O76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="P76" s="3">
         <v>38000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>60000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>59200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>58900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>55000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>59200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6007,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5914,36 +6109,36 @@
       <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5962,29 +6157,32 @@
       <c r="U81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>800</v>
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA81" s="3">
         <v>800</v>
       </c>
       <c r="AB81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,36 +797,36 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>19400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>19000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>20100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
@@ -842,20 +845,20 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4600</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3400</v>
       </c>
       <c r="AB8" s="3">
         <v>3400</v>
@@ -863,8 +866,11 @@
       <c r="AC8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,36 +1460,36 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1482,20 +1508,20 @@
       <c r="V17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
@@ -1503,8 +1529,11 @@
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,36 +1546,36 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>14000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>14700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,20 +1594,20 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>3300</v>
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB18" s="3">
         <v>3300</v>
@@ -1586,8 +1615,11 @@
       <c r="AC18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,36 +1664,36 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-9700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-8600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1679,29 +1712,32 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-2400</v>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB20" s="3">
         <v>-2400</v>
       </c>
       <c r="AC20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,58 +1905,61 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
       </c>
       <c r="N23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1400</v>
       </c>
       <c r="T23" s="3">
         <v>1400</v>
@@ -1926,114 +1968,120 @@
         <v>1400</v>
       </c>
       <c r="V23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1400</v>
       </c>
       <c r="Y23" s="3">
         <v>1400</v>
       </c>
       <c r="Z23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
       <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2129,36 +2180,36 @@
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2177,29 +2228,32 @@
       <c r="V26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>800</v>
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB26" s="3">
         <v>800</v>
       </c>
       <c r="AC26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2212,36 +2266,36 @@
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2260,29 +2314,32 @@
       <c r="V27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>800</v>
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB27" s="3">
         <v>800</v>
       </c>
       <c r="AC27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,8 +2468,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -2426,12 +2486,12 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
         <v>700</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2627,36 +2696,36 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>9700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>8600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2675,29 +2744,32 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>2400</v>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB32" s="3">
         <v>2400</v>
       </c>
       <c r="AC32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2710,36 +2782,36 @@
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2758,29 +2830,32 @@
       <c r="V33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>800</v>
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB33" s="3">
         <v>800</v>
       </c>
       <c r="AC33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2876,36 +2954,36 @@
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2924,117 +3002,123 @@
       <c r="V35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>800</v>
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB35" s="3">
         <v>800</v>
       </c>
       <c r="AC35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3180,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E41" s="3">
         <v>53500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>21800</v>
       </c>
       <c r="O41" s="3">
         <v>21800</v>
       </c>
       <c r="P41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>29500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>39600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E42" s="3">
         <v>112100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>114700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>65700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>69100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>67300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72800</v>
-      </c>
-      <c r="N42" s="3">
-        <v>70200</v>
       </c>
       <c r="O42" s="3">
         <v>70200</v>
       </c>
       <c r="P42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="Q42" s="3">
         <v>73200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>86000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>92600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>88000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>88800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>87200</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>80200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>11100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,28 +3780,31 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>8100</v>
       </c>
       <c r="J48" s="3">
         <v>8100</v>
@@ -3706,10 +3813,10 @@
         <v>8100</v>
       </c>
       <c r="L48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M48" s="3">
         <v>8200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>8300</v>
       </c>
       <c r="N48" s="3">
         <v>8300</v>
@@ -3718,7 +3825,7 @@
         <v>8300</v>
       </c>
       <c r="P48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="Q48" s="3">
         <v>8600</v>
@@ -3727,40 +3834,43 @@
         <v>8600</v>
       </c>
       <c r="S48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T48" s="3">
         <v>8300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7100</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>3200</v>
       </c>
       <c r="AB48" s="3">
         <v>3200</v>
       </c>
       <c r="AC48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AD48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,35 +3883,35 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>3500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>3600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>3600</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>3600</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3809,8 +3919,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>613800</v>
+      </c>
+      <c r="E54" s="3">
         <v>613100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>625000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>627400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>610800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>591800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>587600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>569800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>547800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>554800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>511300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>504900</v>
       </c>
       <c r="O54" s="3">
         <v>504900</v>
       </c>
       <c r="P54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>512100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>520100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>527600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>527400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>519100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>507400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>530000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>386000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>428600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>425000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>535900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>366400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>372500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4499,24 +4635,24 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4532,8 +4668,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>574400</v>
+      </c>
+      <c r="E66" s="3">
         <v>575900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>586100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>581700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>565900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>547900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>544500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>527400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>506400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>514700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>471900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>466200</v>
       </c>
       <c r="O66" s="3">
         <v>466200</v>
       </c>
       <c r="P66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>474100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>483200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>491700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>492300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>484700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>473700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>496800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>326000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>369400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>366100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>504200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>311500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>313200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5682,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5526,35 +5699,35 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>24200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>20000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
-        <v>17900</v>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>17900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="P72" s="3">
+        <v>17900</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
@@ -5562,8 +5735,8 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -5571,32 +5744,35 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>61700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>60300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>59800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>59200</v>
       </c>
       <c r="AB72" s="3">
         <v>59200</v>
       </c>
       <c r="AC72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AD72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E76" s="3">
         <v>37200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>38800</v>
       </c>
       <c r="O76" s="3">
         <v>38800</v>
       </c>
       <c r="P76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>38000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>60000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>59200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>58900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>55000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>59200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6112,36 +6306,36 @@
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6160,29 +6354,32 @@
       <c r="V81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>800</v>
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB81" s="3">
         <v>800</v>
       </c>
       <c r="AC81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -800,36 +804,36 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>19400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>19000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>20100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,20 +852,20 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4600</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3400</v>
       </c>
       <c r="AC8" s="3">
         <v>3400</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1463,36 +1490,36 @@
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1511,20 +1538,20 @@
       <c r="W17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,36 +1579,36 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>17500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>14700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1597,20 +1627,20 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>3300</v>
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC18" s="3">
         <v>3300</v>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1667,36 +1701,36 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-9700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1715,29 +1749,32 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-2400</v>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC20" s="3">
         <v>-2400</v>
       </c>
       <c r="AD20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,61 +1948,64 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
       </c>
       <c r="O23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1400</v>
       </c>
       <c r="U23" s="3">
         <v>1400</v>
@@ -1971,117 +2014,123 @@
         <v>1400</v>
       </c>
       <c r="W23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X23" s="3">
         <v>1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1400</v>
       </c>
       <c r="Z23" s="3">
         <v>1400</v>
       </c>
       <c r="AA23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
       <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2183,36 +2235,36 @@
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,29 +2283,32 @@
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>800</v>
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC26" s="3">
         <v>800</v>
       </c>
       <c r="AD26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2269,36 +2324,36 @@
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2317,29 +2372,32 @@
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>800</v>
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC27" s="3">
         <v>800</v>
       </c>
       <c r="AD27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2532,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2489,12 +2550,12 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3">
         <v>700</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2699,36 +2769,36 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>9700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>8600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2747,29 +2817,32 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>2400</v>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC32" s="3">
         <v>2400</v>
       </c>
       <c r="AD32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AE32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2785,36 +2858,36 @@
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2833,29 +2906,32 @@
       <c r="W33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>800</v>
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC33" s="3">
         <v>800</v>
       </c>
       <c r="AD33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2957,36 +3036,36 @@
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3005,120 +3084,126 @@
       <c r="W35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>800</v>
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC35" s="3">
         <v>800</v>
       </c>
       <c r="AD35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>21800</v>
       </c>
       <c r="P41" s="3">
         <v>21800</v>
       </c>
       <c r="Q41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="R41" s="3">
         <v>29500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>39600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E42" s="3">
         <v>110700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>112100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>65700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>69100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>67300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72800</v>
-      </c>
-      <c r="O42" s="3">
-        <v>70200</v>
       </c>
       <c r="P42" s="3">
         <v>70200</v>
       </c>
       <c r="Q42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="R42" s="3">
         <v>73200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>86700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>92600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>88000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>88800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>87200</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>80200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>8800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,31 +3888,34 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8100</v>
       </c>
       <c r="K48" s="3">
         <v>8100</v>
@@ -3816,10 +3924,10 @@
         <v>8100</v>
       </c>
       <c r="M48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N48" s="3">
         <v>8200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8300</v>
       </c>
       <c r="O48" s="3">
         <v>8300</v>
@@ -3828,7 +3936,7 @@
         <v>8300</v>
       </c>
       <c r="Q48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="R48" s="3">
         <v>8600</v>
@@ -3837,40 +3945,43 @@
         <v>8600</v>
       </c>
       <c r="T48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="U48" s="3">
         <v>8300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7100</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>3200</v>
       </c>
       <c r="AC48" s="3">
         <v>3200</v>
       </c>
       <c r="AD48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AE48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3886,35 +3997,35 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>3500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>3600</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>3600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>3600</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3922,8 +4033,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600900</v>
+      </c>
+      <c r="E54" s="3">
         <v>613800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>613100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>625000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>627400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>610800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>591800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>587600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>569800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>547800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>554800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>511300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>504900</v>
       </c>
       <c r="P54" s="3">
         <v>504900</v>
       </c>
       <c r="Q54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="R54" s="3">
         <v>512100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>520100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>527600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>527400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>519100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>507400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>530000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>386000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>428600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>425000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>535900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>366400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>372500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4638,24 +4775,24 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4671,8 +4808,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>558600</v>
+      </c>
+      <c r="E66" s="3">
         <v>574400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>575900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>586100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>581700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>565900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>547900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>544500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>527400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>506400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>514700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>471900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>466200</v>
       </c>
       <c r="P66" s="3">
         <v>466200</v>
       </c>
       <c r="Q66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="R66" s="3">
         <v>474100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>483200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>491700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>492300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>484700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>473700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>496800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>326000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>369400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>366100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>504200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>311500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>313200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5702,35 +5876,35 @@
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>24200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>20000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
-        <v>17900</v>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>17900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>17900</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
@@ -5738,8 +5912,8 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -5747,32 +5921,35 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>61700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>60300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>59800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10400</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>59200</v>
       </c>
       <c r="AC72" s="3">
         <v>59200</v>
       </c>
       <c r="AD72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AE72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E76" s="3">
         <v>39300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>38800</v>
       </c>
       <c r="P76" s="3">
         <v>38800</v>
       </c>
       <c r="Q76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="R76" s="3">
         <v>38000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>60000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>59200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>58900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>55000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>59200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6309,36 +6504,36 @@
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6357,29 +6552,32 @@
       <c r="W81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>800</v>
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC81" s="3">
         <v>800</v>
       </c>
       <c r="AD81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="92">
   <si>
     <t>CEFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,36 +811,36 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>19400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>19000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>20100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,20 +859,20 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4600</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>3400</v>
       </c>
       <c r="AD8" s="3">
         <v>3400</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1493,36 +1520,36 @@
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1541,20 +1568,20 @@
       <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1582,36 +1612,36 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>17500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>14700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1630,20 +1660,20 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>3300</v>
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD18" s="3">
         <v>3300</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1704,36 +1738,36 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-9700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-8600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1752,29 +1786,32 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-2400</v>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD20" s="3">
         <v>-2400</v>
       </c>
       <c r="AE20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,64 +1991,67 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1400</v>
       </c>
       <c r="O23" s="3">
         <v>1400</v>
       </c>
       <c r="P23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1400</v>
       </c>
       <c r="V23" s="3">
         <v>1400</v>
@@ -2017,31 +2060,34 @@
         <v>1400</v>
       </c>
       <c r="X23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1400</v>
       </c>
       <c r="AA23" s="3">
         <v>1400</v>
       </c>
       <c r="AB23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,88 +2095,91 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
       <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,13 +2267,16 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1500</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2238,36 +2290,36 @@
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2286,34 +2338,37 @@
       <c r="X26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>2900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1100</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>800</v>
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD26" s="3">
         <v>800</v>
       </c>
       <c r="AE26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1500</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -2327,36 +2382,36 @@
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2375,29 +2430,32 @@
       <c r="X27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>2900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1100</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>800</v>
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD27" s="3">
         <v>800</v>
       </c>
       <c r="AE27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2553,12 +2614,12 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
         <v>700</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2772,36 +2842,36 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>9700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>8600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2820,34 +2890,37 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>2400</v>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD32" s="3">
         <v>2400</v>
       </c>
       <c r="AE32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AF32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1500</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>4</v>
@@ -2861,36 +2934,36 @@
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2909,29 +2982,32 @@
       <c r="X33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>3500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1100</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>800</v>
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD33" s="3">
         <v>800</v>
       </c>
       <c r="AE33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,13 +3095,16 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1500</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -3039,36 +3118,36 @@
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3087,123 +3166,129 @@
       <c r="X35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>3500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1100</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>800</v>
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD35" s="3">
         <v>800</v>
       </c>
       <c r="AE35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E41" s="3">
         <v>45000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>21800</v>
       </c>
       <c r="Q41" s="3">
         <v>21800</v>
       </c>
       <c r="R41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="S41" s="3">
         <v>29500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>39600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E42" s="3">
         <v>102700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>110700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>112100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>122900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>79900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>69100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>67300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72800</v>
-      </c>
-      <c r="P42" s="3">
-        <v>70200</v>
       </c>
       <c r="Q42" s="3">
         <v>70200</v>
       </c>
       <c r="R42" s="3">
+        <v>70200</v>
+      </c>
+      <c r="S42" s="3">
         <v>73200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>86000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>86700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>92600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>88000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>88800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>87200</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>80200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>8800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>11100</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,34 +3996,37 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8100</v>
       </c>
       <c r="L48" s="3">
         <v>8100</v>
@@ -3927,10 +4035,10 @@
         <v>8100</v>
       </c>
       <c r="N48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O48" s="3">
         <v>8200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8300</v>
       </c>
       <c r="P48" s="3">
         <v>8300</v>
@@ -3939,7 +4047,7 @@
         <v>8300</v>
       </c>
       <c r="R48" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="S48" s="3">
         <v>8600</v>
@@ -3948,40 +4056,43 @@
         <v>8600</v>
       </c>
       <c r="U48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="V48" s="3">
         <v>8300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7100</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>3200</v>
       </c>
       <c r="AD48" s="3">
         <v>3200</v>
       </c>
       <c r="AE48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AF48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4000,35 +4111,35 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>3600</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>3600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>3600</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -4036,8 +4147,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>587900</v>
+      </c>
+      <c r="E54" s="3">
         <v>600900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>613800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>613100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>625000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>627400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>610800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>591800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>587600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>569800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>547800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>554800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>511300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>504900</v>
       </c>
       <c r="Q54" s="3">
         <v>504900</v>
       </c>
       <c r="R54" s="3">
+        <v>504900</v>
+      </c>
+      <c r="S54" s="3">
         <v>512100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>520100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>527600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>527400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>519100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>507400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>530000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>386000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>428600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>425000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>535900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>366400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>372500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>366400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4778,24 +4915,24 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4811,8 +4948,8 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>544800</v>
+      </c>
+      <c r="E66" s="3">
         <v>558600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>574400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>575900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>586100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>581700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>565900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>547900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>544500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>527400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>506400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>514700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>471900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>466200</v>
       </c>
       <c r="Q66" s="3">
         <v>466200</v>
       </c>
       <c r="R66" s="3">
+        <v>466200</v>
+      </c>
+      <c r="S66" s="3">
         <v>474100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>483200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>491700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>492300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>484700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>473700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>496800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>326000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>369400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>366100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>504200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>311500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>313200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>307500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5879,35 +6053,35 @@
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>24200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>20000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>17900</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q72" s="3">
         <v>17900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>17900</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
@@ -5915,8 +6089,8 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
@@ -5924,32 +6098,35 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>61700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>60300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>59800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>10400</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>59200</v>
       </c>
       <c r="AD72" s="3">
         <v>59200</v>
       </c>
       <c r="AE72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="AF72" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E76" s="3">
         <v>42300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>38800</v>
       </c>
       <c r="Q76" s="3">
         <v>38800</v>
       </c>
       <c r="R76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="S76" s="3">
         <v>38000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>60000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>59200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>58900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>55000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>59200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,107 +6582,113 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1500</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>4</v>
@@ -6507,36 +6702,36 @@
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6555,29 +6750,32 @@
       <c r="X81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>3500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1100</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>800</v>
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD81" s="3">
         <v>800</v>
       </c>
       <c r="AE81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
